--- a/classification/droptc/modern-bert/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.3451312482357025</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.6089891791343689</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.5871070027351379</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.3729308545589447</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.6609150171279907</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3816289007663727</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.5386673808097839</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.8472254276275635</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.2865511775016785</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.4728878140449524</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.6543797850608826</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.283904492855072</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.6657037734985352</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.635378897190094</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.5230482816696167</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.9317825436592102</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.6028457880020142</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.7373360991477966</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.619384765625</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.3320520222187042</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.4111723005771637</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.3793114721775055</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.3354596197605133</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.6019080877304077</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3816289007663727</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.6061379313468933</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.8343081474304199</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.6489699482917786</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.6236235499382019</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.8613314628601074</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.8862974047660828</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.585573136806488</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8162306547164917</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7142558097839355</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.2860042154788971</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.6406979560852051</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.7655429244041443</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.3299026191234589</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.596571683883667</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.5293278098106384</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.613617479801178</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.4032351970672607</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.304119735956192</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.6222356557846069</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.3649276494979858</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.7452240586280823</v>
       </c>
     </row>
     <row r="48">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.5313354134559631</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.598924458026886</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.5248754024505615</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.8464784026145935</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.4911434352397919</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.5167089104652405</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.6318239569664001</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.5735693573951721</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.8264524340629578</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.6617582440376282</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.423375278711319</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.7321462035179138</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.7355498075485229</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.5031723380088806</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.7820926308631897</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.6084004640579224</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.7499294281005859</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4124030470848083</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.54038405418396</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.8275352120399475</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.6380352377891541</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.7289352416992188</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.7465482354164124</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.5459418892860413</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.3793114721775055</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.3231696486473083</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.4124030470848083</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.7009260058403015</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.2966093719005585</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.611592710018158</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.312782496213913</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.4291417002677917</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.890241801738739</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.5764465928077698</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.4124030470848083</v>
       </c>
     </row>
     <row r="86">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.5026950240135193</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.598924458026886</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.5807068943977356</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7382638454437256</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8175160884857178</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.5574949979782104</v>
       </c>
     </row>
     <row r="92">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.2966093719005585</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.5626475811004639</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.5891306400299072</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.4420460164546967</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.6760238409042358</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.2680124044418335</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.4280219972133636</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.335380882024765</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.832432746887207</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.8228468894958496</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.7396066188812256</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.6827051639556885</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.3670213520526886</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.5962300896644592</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.5674068927764893</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.6484708189964294</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.8675227165222168</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.6167199611663818</v>
       </c>
     </row>
     <row r="112">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.4038373529911041</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.8146914839744568</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.9478940963745117</v>
       </c>
     </row>
     <row r="115">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.2879429757595062</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.4941063821315765</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.390680342912674</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.9441679120063782</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.7421250939369202</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.8968486189842224</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.3513072729110718</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.7141782641410828</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.7354364395141602</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.6855066418647766</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.8378097414970398</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.6668412685394287</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6651714444160461</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.7348690629005432</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.6478366255760193</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.7111830711364746</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.7375949025154114</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.4885993599891663</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.7311335802078247</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.6489699482917786</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.848318338394165</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.734879732131958</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.6028457880020142</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.2663693130016327</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.6285895109176636</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.5141315460205078</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.798853874206543</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.7370856404304504</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.6917850375175476</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.4237169623374939</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.3481611907482147</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.4449295699596405</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.5187598466873169</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.6210532188415527</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5327861309051514</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.6396946310997009</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.5871387720108032</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.312782496213913</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.772646963596344</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.7200314402580261</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.7551249861717224</v>
       </c>
     </row>
     <row r="156">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.4863521158695221</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.8656681180000305</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.587918221950531</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.8542909026145935</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.6344403028488159</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.8655702471733093</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.6000043749809265</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.7220517992973328</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.3793114721775055</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.4291417002677917</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.6884641647338867</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.312782496213913</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.8874058723449707</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.8299918174743652</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.7466667890548706</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.2860042154788971</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.7200208902359009</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.7194186449050903</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.8197920918464661</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.8279026746749878</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.5261064767837524</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.4992346465587616</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.532464861869812</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.7466656565666199</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.7858430147171021</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.5359746217727661</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.2479963898658752</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.4407813251018524</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.6064291000366211</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.3993588387966156</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.5574949979782104</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.4056570529937744</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.8862974047660828</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.5325646996498108</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.6443780660629272</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.6632332801818848</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.3817919790744781</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.6815076470375061</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.7999469041824341</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.3513651490211487</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.7600861787796021</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.8050076365470886</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.7602049112319946</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.4134120345115662</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.8168874979019165</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.8934069871902466</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.5887905359268188</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.7250402569770813</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.7701608538627625</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.7246986627578735</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.6335164308547974</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.7603737711906433</v>
       </c>
     </row>
   </sheetData>
